--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trading\ACP\ProjetFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F965E4E8-6E5A-4557-BA08-2840EEA47E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F22FBEC-782E-4D2C-BABC-EC8E08193D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="1710" windowWidth="21600" windowHeight="11835" xr2:uid="{B38B07DF-C0CD-4C14-AC39-87800107D561}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B38B07DF-C0CD-4C14-AC39-87800107D561}"/>
   </bookViews>
   <sheets>
     <sheet name="clust_162" sheetId="2" r:id="rId1"/>
@@ -920,9 +920,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1283,7 +1282,7 @@
   <dimension ref="A1:O251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,7 +1305,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>65</v>
       </c>
       <c r="B2">
@@ -1314,7 +1313,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>222</v>
       </c>
       <c r="B3">
@@ -1322,7 +1321,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>181</v>
       </c>
       <c r="B4">
@@ -1330,7 +1329,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>204</v>
       </c>
       <c r="B5">
@@ -1338,7 +1337,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>77</v>
       </c>
       <c r="B6">
@@ -1346,7 +1345,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>195</v>
       </c>
       <c r="B7">
@@ -1354,7 +1353,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>188</v>
       </c>
       <c r="B8">
@@ -1362,7 +1361,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9">
@@ -1370,7 +1369,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>54</v>
       </c>
       <c r="B10">
@@ -1381,7 +1380,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>130</v>
       </c>
       <c r="B11">
@@ -1389,7 +1388,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>150</v>
       </c>
       <c r="B12">
@@ -1400,7 +1399,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>185</v>
       </c>
       <c r="B13">
@@ -1408,7 +1407,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>109</v>
       </c>
       <c r="B14">
@@ -1419,7 +1418,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>121</v>
       </c>
       <c r="B15">
@@ -1427,7 +1426,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>214</v>
       </c>
       <c r="B16">
@@ -1438,7 +1437,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>92</v>
       </c>
       <c r="B17">
@@ -1446,7 +1445,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18">
@@ -1463,7 +1462,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
@@ -1477,7 +1476,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>190</v>
       </c>
       <c r="B20">
@@ -1494,7 +1493,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>63</v>
       </c>
       <c r="B21">
@@ -1508,7 +1507,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>113</v>
       </c>
       <c r="B22">
@@ -1525,7 +1524,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>129</v>
       </c>
       <c r="B23">
@@ -1539,7 +1538,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>141</v>
       </c>
       <c r="B24">
@@ -1556,7 +1555,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>81</v>
       </c>
       <c r="B25">
@@ -1564,7 +1563,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>156</v>
       </c>
       <c r="B26">
@@ -1575,7 +1574,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>47</v>
       </c>
       <c r="B27">
@@ -1583,7 +1582,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>128</v>
       </c>
       <c r="B28">
@@ -1591,7 +1590,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>158</v>
       </c>
       <c r="B29">
@@ -1602,7 +1601,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>49</v>
       </c>
       <c r="B30">
@@ -1610,7 +1609,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>137</v>
       </c>
       <c r="B31">
@@ -1621,7 +1620,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>157</v>
       </c>
       <c r="B32">
@@ -1629,7 +1628,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>58</v>
       </c>
       <c r="B33">
@@ -1640,7 +1639,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>215</v>
       </c>
       <c r="B34">
@@ -1648,7 +1647,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>196</v>
       </c>
       <c r="B35">
@@ -1659,7 +1658,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>223</v>
       </c>
       <c r="B36">
@@ -1667,7 +1666,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>134</v>
       </c>
       <c r="B37">
@@ -1678,7 +1677,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>34</v>
       </c>
       <c r="B38">
@@ -1686,7 +1685,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>228</v>
       </c>
       <c r="B39">
@@ -1694,7 +1693,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
@@ -1702,7 +1701,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>132</v>
       </c>
       <c r="B41">
@@ -1710,7 +1709,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>189</v>
       </c>
       <c r="B42">
@@ -1718,7 +1717,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>21</v>
       </c>
       <c r="B43">
@@ -1726,7 +1725,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>138</v>
       </c>
       <c r="B44">
@@ -1734,7 +1733,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>123</v>
       </c>
       <c r="B45">
@@ -1742,7 +1741,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>198</v>
       </c>
       <c r="B46">
@@ -1750,7 +1749,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>62</v>
       </c>
       <c r="B47">
@@ -1758,7 +1757,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>114</v>
       </c>
       <c r="B48">
@@ -1766,7 +1765,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>96</v>
       </c>
       <c r="B49">
@@ -1774,7 +1773,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>245</v>
       </c>
       <c r="B50">
@@ -1782,7 +1781,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>205</v>
       </c>
       <c r="B51">
@@ -1790,7 +1789,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>213</v>
       </c>
       <c r="B52">
@@ -1798,7 +1797,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>72</v>
       </c>
       <c r="B53">
@@ -1806,7 +1805,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>221</v>
       </c>
       <c r="B54">
@@ -1814,7 +1813,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>110</v>
       </c>
       <c r="B55">
@@ -1822,7 +1821,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>112</v>
       </c>
       <c r="B56">
@@ -1830,7 +1829,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>45</v>
       </c>
       <c r="B57">
@@ -1838,7 +1837,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>91</v>
       </c>
       <c r="B58">
@@ -1846,7 +1845,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>20</v>
       </c>
       <c r="B59">
@@ -1854,7 +1853,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>125</v>
       </c>
       <c r="B60">
@@ -1862,7 +1861,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>26</v>
       </c>
       <c r="B61">
@@ -1870,7 +1869,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>175</v>
       </c>
       <c r="B62">
@@ -1878,7 +1877,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>243</v>
       </c>
       <c r="B63">
@@ -1886,7 +1885,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>46</v>
       </c>
       <c r="B64">
@@ -1894,7 +1893,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65">
@@ -1902,7 +1901,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>203</v>
       </c>
       <c r="B66">
@@ -1910,7 +1909,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>225</v>
       </c>
       <c r="B67">
@@ -1918,7 +1917,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>127</v>
       </c>
       <c r="B68">
@@ -1926,7 +1925,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>193</v>
       </c>
       <c r="B69">
@@ -1934,7 +1933,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>31</v>
       </c>
       <c r="B70">
@@ -1942,7 +1941,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>216</v>
       </c>
       <c r="B71">
@@ -1950,7 +1949,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>42</v>
       </c>
       <c r="B72">
@@ -1958,7 +1957,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>57</v>
       </c>
       <c r="B73">
@@ -1966,7 +1965,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>153</v>
       </c>
       <c r="B74">
@@ -1974,7 +1973,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>218</v>
       </c>
       <c r="B75">
@@ -1982,7 +1981,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>201</v>
       </c>
       <c r="B76">
@@ -1990,7 +1989,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>74</v>
       </c>
       <c r="B77">
@@ -1998,7 +1997,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>220</v>
       </c>
       <c r="B78">
@@ -2006,7 +2005,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>144</v>
       </c>
       <c r="B79">
@@ -2014,7 +2013,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>60</v>
       </c>
       <c r="B80">
@@ -2022,7 +2021,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>140</v>
       </c>
       <c r="B81">
@@ -2030,7 +2029,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>131</v>
       </c>
       <c r="B82">
@@ -2038,7 +2037,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>202</v>
       </c>
       <c r="B83">
@@ -2046,7 +2045,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>160</v>
       </c>
       <c r="B84">
@@ -2054,7 +2053,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>244</v>
       </c>
       <c r="B85">
@@ -2062,7 +2061,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>143</v>
       </c>
       <c r="B86">
@@ -2070,7 +2069,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>107</v>
       </c>
       <c r="B87">
@@ -2078,7 +2077,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>79</v>
       </c>
       <c r="B88">
@@ -2086,7 +2085,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>241</v>
       </c>
       <c r="B89">
@@ -2094,7 +2093,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>126</v>
       </c>
       <c r="B90">
@@ -2102,7 +2101,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>18</v>
       </c>
       <c r="B91">
@@ -2110,7 +2109,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>238</v>
       </c>
       <c r="B92">
@@ -2118,7 +2117,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>108</v>
       </c>
       <c r="B93">
@@ -2126,7 +2125,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>171</v>
       </c>
       <c r="B94">
@@ -2134,7 +2133,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>105</v>
       </c>
       <c r="B95">
@@ -2142,7 +2141,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>224</v>
       </c>
       <c r="B96">
@@ -2150,7 +2149,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>35</v>
       </c>
       <c r="B97">
@@ -2158,7 +2157,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>219</v>
       </c>
       <c r="B98">
@@ -2166,7 +2165,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>56</v>
       </c>
       <c r="B99">
@@ -2174,7 +2173,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>93</v>
       </c>
       <c r="B100">
@@ -2182,7 +2181,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>9</v>
       </c>
       <c r="B101">
@@ -2190,7 +2189,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" t="s">
         <v>6</v>
       </c>
       <c r="B102">
@@ -2198,7 +2197,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>66</v>
       </c>
       <c r="B103">
@@ -2206,7 +2205,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="A104" t="s">
         <v>36</v>
       </c>
       <c r="B104">
@@ -2214,7 +2213,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
         <v>159</v>
       </c>
       <c r="B105">
@@ -2222,7 +2221,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="A106" t="s">
         <v>192</v>
       </c>
       <c r="B106">
@@ -2230,7 +2229,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="A107" t="s">
         <v>176</v>
       </c>
       <c r="B107">
@@ -2238,7 +2237,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>229</v>
       </c>
       <c r="B108">
@@ -2246,7 +2245,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="A109" t="s">
         <v>149</v>
       </c>
       <c r="B109">
@@ -2254,7 +2253,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="A110" t="s">
         <v>233</v>
       </c>
       <c r="B110">
@@ -2262,7 +2261,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
         <v>101</v>
       </c>
       <c r="B111">
@@ -2270,7 +2269,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>147</v>
       </c>
       <c r="B112">
@@ -2278,7 +2277,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>197</v>
       </c>
       <c r="B113">
@@ -2286,7 +2285,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>240</v>
       </c>
       <c r="B114">
@@ -2294,7 +2293,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>247</v>
       </c>
       <c r="B115">
@@ -2302,7 +2301,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>16</v>
       </c>
       <c r="B116">
@@ -2310,7 +2309,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>52</v>
       </c>
       <c r="B117">
@@ -2318,7 +2317,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" t="s">
         <v>78</v>
       </c>
       <c r="B118">
@@ -2326,7 +2325,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="A119" t="s">
         <v>89</v>
       </c>
       <c r="B119">
@@ -2334,7 +2333,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="A120" t="s">
         <v>98</v>
       </c>
       <c r="B120">
@@ -2342,7 +2341,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="A121" t="s">
         <v>124</v>
       </c>
       <c r="B121">
@@ -2350,7 +2349,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>135</v>
       </c>
       <c r="B122">
@@ -2358,7 +2357,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="A123" t="s">
         <v>161</v>
       </c>
       <c r="B123">
@@ -2366,7 +2365,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="A124" t="s">
         <v>208</v>
       </c>
       <c r="B124">
@@ -2374,7 +2373,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" t="s">
         <v>217</v>
       </c>
       <c r="B125">
@@ -2382,7 +2381,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
         <v>242</v>
       </c>
       <c r="B126">
@@ -2390,7 +2389,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="A127" t="s">
         <v>249</v>
       </c>
       <c r="B127">
@@ -2398,7 +2397,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="A128" t="s">
         <v>32</v>
       </c>
       <c r="B128">
@@ -2406,7 +2405,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="A129" t="s">
         <v>44</v>
       </c>
       <c r="B129">
@@ -2414,7 +2413,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="A130" t="s">
         <v>251</v>
       </c>
       <c r="B130">
@@ -2422,7 +2421,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>179</v>
       </c>
       <c r="B131">
@@ -2430,7 +2429,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="A132" t="s">
         <v>14</v>
       </c>
       <c r="B132">
@@ -2438,7 +2437,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
         <v>133</v>
       </c>
       <c r="B133">
@@ -2446,7 +2445,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="A134" t="s">
         <v>246</v>
       </c>
       <c r="B134">
@@ -2454,7 +2453,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>166</v>
       </c>
       <c r="B135">
@@ -2462,7 +2461,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="A136" t="s">
         <v>23</v>
       </c>
       <c r="B136">
@@ -2470,7 +2469,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="A137" t="s">
         <v>28</v>
       </c>
       <c r="B137">
@@ -2478,7 +2477,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="A138" t="s">
         <v>67</v>
       </c>
       <c r="B138">
@@ -2486,7 +2485,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="A139" t="s">
         <v>99</v>
       </c>
       <c r="B139">
@@ -2494,7 +2493,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="A140" t="s">
         <v>117</v>
       </c>
       <c r="B140">
@@ -2502,7 +2501,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="A141" t="s">
         <v>100</v>
       </c>
       <c r="B141">
@@ -2510,7 +2509,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="A142" t="s">
         <v>3</v>
       </c>
       <c r="B142">
@@ -2518,7 +2517,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="A143" t="s">
         <v>199</v>
       </c>
       <c r="B143">
@@ -2526,7 +2525,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="A144" t="s">
         <v>170</v>
       </c>
       <c r="B144">
@@ -2534,7 +2533,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="A145" t="s">
         <v>111</v>
       </c>
       <c r="B145">
@@ -2542,7 +2541,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="A146" t="s">
         <v>182</v>
       </c>
       <c r="B146">
@@ -2550,7 +2549,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="A147" t="s">
         <v>95</v>
       </c>
       <c r="B147">
@@ -2558,7 +2557,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>84</v>
       </c>
       <c r="B148">
@@ -2566,7 +2565,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="A149" t="s">
         <v>11</v>
       </c>
       <c r="B149">
@@ -2574,7 +2573,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="A150" t="s">
         <v>40</v>
       </c>
       <c r="B150">
@@ -2582,7 +2581,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
         <v>200</v>
       </c>
       <c r="B151">
@@ -2590,7 +2589,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="A152" t="s">
         <v>24</v>
       </c>
       <c r="B152">
@@ -2598,7 +2597,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="A153" t="s">
         <v>53</v>
       </c>
       <c r="B153">
@@ -2606,7 +2605,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="A154" t="s">
         <v>75</v>
       </c>
       <c r="B154">
@@ -2614,7 +2613,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="A155" t="s">
         <v>194</v>
       </c>
       <c r="B155">
@@ -2622,7 +2621,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="A156" t="s">
         <v>209</v>
       </c>
       <c r="B156">
@@ -2630,7 +2629,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="A157" t="s">
         <v>64</v>
       </c>
       <c r="B157">
@@ -2638,7 +2637,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="A158" t="s">
         <v>12</v>
       </c>
       <c r="B158">
@@ -2646,7 +2645,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="A159" t="s">
         <v>155</v>
       </c>
       <c r="B159">
@@ -2654,7 +2653,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="A160" t="s">
         <v>230</v>
       </c>
       <c r="B160">
@@ -2662,7 +2661,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="A161" t="s">
         <v>97</v>
       </c>
       <c r="B161">
@@ -2670,7 +2669,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="A162" t="s">
         <v>152</v>
       </c>
       <c r="B162">
@@ -2678,7 +2677,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="A163" t="s">
         <v>207</v>
       </c>
       <c r="B163">
@@ -2686,7 +2685,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="A164" t="s">
         <v>122</v>
       </c>
       <c r="B164">
@@ -2694,7 +2693,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="A165" t="s">
         <v>120</v>
       </c>
       <c r="B165">
@@ -2702,7 +2701,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="A166" t="s">
         <v>76</v>
       </c>
       <c r="B166">
@@ -2710,7 +2709,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+      <c r="A167" t="s">
         <v>177</v>
       </c>
       <c r="B167">
@@ -2718,7 +2717,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="A168" t="s">
         <v>169</v>
       </c>
       <c r="B168">
@@ -2726,7 +2725,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="A169" t="s">
         <v>206</v>
       </c>
       <c r="B169">
@@ -2734,7 +2733,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="A170" t="s">
         <v>30</v>
       </c>
       <c r="B170">
@@ -2742,7 +2741,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="A171" t="s">
         <v>146</v>
       </c>
       <c r="B171">
@@ -2750,7 +2749,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="A172" t="s">
         <v>174</v>
       </c>
       <c r="B172">
@@ -2758,7 +2757,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="A173" t="s">
         <v>145</v>
       </c>
       <c r="B173">
@@ -2766,7 +2765,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+      <c r="A174" t="s">
         <v>82</v>
       </c>
       <c r="B174">
@@ -2774,7 +2773,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+      <c r="A175" t="s">
         <v>8</v>
       </c>
       <c r="B175">
@@ -2782,7 +2781,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="A176" t="s">
         <v>167</v>
       </c>
       <c r="B176">
@@ -2790,7 +2789,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+      <c r="A177" t="s">
         <v>94</v>
       </c>
       <c r="B177">
@@ -2798,7 +2797,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+      <c r="A178" t="s">
         <v>61</v>
       </c>
       <c r="B178">
@@ -2806,7 +2805,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+      <c r="A179" t="s">
         <v>13</v>
       </c>
       <c r="B179">
@@ -2814,7 +2813,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+      <c r="A180" t="s">
         <v>87</v>
       </c>
       <c r="B180">
@@ -2822,7 +2821,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="A181" t="s">
         <v>139</v>
       </c>
       <c r="B181">
@@ -2830,7 +2829,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="A182" t="s">
         <v>172</v>
       </c>
       <c r="B182">
@@ -2838,7 +2837,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+      <c r="A183" t="s">
         <v>184</v>
       </c>
       <c r="B183">
@@ -2846,7 +2845,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+      <c r="A184" t="s">
         <v>148</v>
       </c>
       <c r="B184">
@@ -2854,7 +2853,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="A185" t="s">
         <v>4</v>
       </c>
       <c r="B185">
@@ -2862,7 +2861,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="A186" t="s">
         <v>103</v>
       </c>
       <c r="B186">
@@ -2870,7 +2869,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="A187" t="s">
         <v>33</v>
       </c>
       <c r="B187">
@@ -2878,7 +2877,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+      <c r="A188" t="s">
         <v>7</v>
       </c>
       <c r="B188">
@@ -2886,7 +2885,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+      <c r="A189" t="s">
         <v>168</v>
       </c>
       <c r="B189">
@@ -2894,7 +2893,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+      <c r="A190" t="s">
         <v>85</v>
       </c>
       <c r="B190">
@@ -2902,7 +2901,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+      <c r="A191" t="s">
         <v>142</v>
       </c>
       <c r="B191">
@@ -2910,7 +2909,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+      <c r="A192" t="s">
         <v>37</v>
       </c>
       <c r="B192">
@@ -2918,7 +2917,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+      <c r="A193" t="s">
         <v>178</v>
       </c>
       <c r="B193">
@@ -2926,7 +2925,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+      <c r="A194" t="s">
         <v>88</v>
       </c>
       <c r="B194">
@@ -2934,7 +2933,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+      <c r="A195" t="s">
         <v>231</v>
       </c>
       <c r="B195">
@@ -2942,7 +2941,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+      <c r="A196" t="s">
         <v>102</v>
       </c>
       <c r="B196">
@@ -2950,7 +2949,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+      <c r="A197" t="s">
         <v>15</v>
       </c>
       <c r="B197">
@@ -2958,7 +2957,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+      <c r="A198" t="s">
         <v>38</v>
       </c>
       <c r="B198">
@@ -2966,7 +2965,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+      <c r="A199" t="s">
         <v>48</v>
       </c>
       <c r="B199">
@@ -2974,7 +2973,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+      <c r="A200" t="s">
         <v>51</v>
       </c>
       <c r="B200">
@@ -2982,7 +2981,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+      <c r="A201" t="s">
         <v>80</v>
       </c>
       <c r="B201">
@@ -2990,7 +2989,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+      <c r="A202" t="s">
         <v>83</v>
       </c>
       <c r="B202">
@@ -2998,7 +2997,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+      <c r="A203" t="s">
         <v>104</v>
       </c>
       <c r="B203">
@@ -3006,7 +3005,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+      <c r="A204" t="s">
         <v>116</v>
       </c>
       <c r="B204">
@@ -3014,7 +3013,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
+      <c r="A205" t="s">
         <v>118</v>
       </c>
       <c r="B205">
@@ -3022,7 +3021,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
+      <c r="A206" t="s">
         <v>154</v>
       </c>
       <c r="B206">
@@ -3030,7 +3029,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+      <c r="A207" t="s">
         <v>180</v>
       </c>
       <c r="B207">
@@ -3038,7 +3037,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+      <c r="A208" t="s">
         <v>187</v>
       </c>
       <c r="B208">
@@ -3046,7 +3045,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
+      <c r="A209" t="s">
         <v>210</v>
       </c>
       <c r="B209">
@@ -3054,7 +3053,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
+      <c r="A210" t="s">
         <v>232</v>
       </c>
       <c r="B210">
@@ -3062,7 +3061,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
+      <c r="A211" t="s">
         <v>234</v>
       </c>
       <c r="B211">
@@ -3070,7 +3069,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
+      <c r="A212" t="s">
         <v>237</v>
       </c>
       <c r="B212">
@@ -3078,7 +3077,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
+      <c r="A213" t="s">
         <v>248</v>
       </c>
       <c r="B213">
@@ -3086,7 +3085,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
+      <c r="A214" t="s">
         <v>27</v>
       </c>
       <c r="B214">
@@ -3094,7 +3093,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
+      <c r="A215" t="s">
         <v>29</v>
       </c>
       <c r="B215">
@@ -3102,7 +3101,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
+      <c r="A216" t="s">
         <v>151</v>
       </c>
       <c r="B216">
@@ -3110,7 +3109,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+      <c r="A217" t="s">
         <v>173</v>
       </c>
       <c r="B217">
@@ -3118,7 +3117,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+      <c r="A218" t="s">
         <v>186</v>
       </c>
       <c r="B218">
@@ -3126,7 +3125,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+      <c r="A219" t="s">
         <v>250</v>
       </c>
       <c r="B219">
@@ -3134,7 +3133,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
+      <c r="A220" t="s">
         <v>5</v>
       </c>
       <c r="B220">
@@ -3142,7 +3141,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
+      <c r="A221" t="s">
         <v>22</v>
       </c>
       <c r="B221">
@@ -3150,7 +3149,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+      <c r="A222" t="s">
         <v>25</v>
       </c>
       <c r="B222">
@@ -3158,7 +3157,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
+      <c r="A223" t="s">
         <v>39</v>
       </c>
       <c r="B223">
@@ -3166,7 +3165,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
+      <c r="A224" t="s">
         <v>43</v>
       </c>
       <c r="B224">
@@ -3174,7 +3173,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
+      <c r="A225" t="s">
         <v>50</v>
       </c>
       <c r="B225">
@@ -3182,7 +3181,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+      <c r="A226" t="s">
         <v>55</v>
       </c>
       <c r="B226">
@@ -3190,7 +3189,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
+      <c r="A227" t="s">
         <v>59</v>
       </c>
       <c r="B227">
@@ -3198,7 +3197,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
+      <c r="A228" t="s">
         <v>68</v>
       </c>
       <c r="B228">
@@ -3206,7 +3205,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+      <c r="A229" t="s">
         <v>69</v>
       </c>
       <c r="B229">
@@ -3214,7 +3213,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
+      <c r="A230" t="s">
         <v>70</v>
       </c>
       <c r="B230">
@@ -3222,7 +3221,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
+      <c r="A231" t="s">
         <v>73</v>
       </c>
       <c r="B231">
@@ -3230,7 +3229,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+      <c r="A232" t="s">
         <v>86</v>
       </c>
       <c r="B232">
@@ -3238,7 +3237,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+      <c r="A233" t="s">
         <v>90</v>
       </c>
       <c r="B233">
@@ -3246,7 +3245,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+      <c r="A234" t="s">
         <v>106</v>
       </c>
       <c r="B234">
@@ -3254,7 +3253,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
+      <c r="A235" t="s">
         <v>115</v>
       </c>
       <c r="B235">
@@ -3262,7 +3261,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+      <c r="A236" t="s">
         <v>119</v>
       </c>
       <c r="B236">
@@ -3270,7 +3269,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
+      <c r="A237" t="s">
         <v>136</v>
       </c>
       <c r="B237">
@@ -3278,7 +3277,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
+      <c r="A238" t="s">
         <v>162</v>
       </c>
       <c r="B238">
@@ -3286,7 +3285,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
+      <c r="A239" t="s">
         <v>163</v>
       </c>
       <c r="B239">
@@ -3294,7 +3293,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
+      <c r="A240" t="s">
         <v>164</v>
       </c>
       <c r="B240">
@@ -3302,7 +3301,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
+      <c r="A241" t="s">
         <v>165</v>
       </c>
       <c r="B241">
@@ -3310,7 +3309,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
+      <c r="A242" t="s">
         <v>183</v>
       </c>
       <c r="B242">
@@ -3318,7 +3317,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
+      <c r="A243" t="s">
         <v>191</v>
       </c>
       <c r="B243">
@@ -3326,7 +3325,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
+      <c r="A244" t="s">
         <v>211</v>
       </c>
       <c r="B244">
@@ -3334,7 +3333,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
+      <c r="A245" t="s">
         <v>212</v>
       </c>
       <c r="B245">
@@ -3342,7 +3341,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
+      <c r="A246" t="s">
         <v>227</v>
       </c>
       <c r="B246">
@@ -3350,7 +3349,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
+      <c r="A247" t="s">
         <v>235</v>
       </c>
       <c r="B247">
@@ -3358,7 +3357,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
+      <c r="A248" t="s">
         <v>236</v>
       </c>
       <c r="B248">
@@ -3366,7 +3365,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
+      <c r="A249" t="s">
         <v>239</v>
       </c>
       <c r="B249">
@@ -3374,7 +3373,7 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
+      <c r="A250" t="s">
         <v>2</v>
       </c>
       <c r="B250">
@@ -3382,7 +3381,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
+      <c r="A251" t="s">
         <v>226</v>
       </c>
       <c r="B251">
